--- a/品質管理/質問編集.xlsx
+++ b/品質管理/質問編集.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\webアプリ開発\品質管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6092280-25DE-4D0B-8803-D78FABB04AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AF681B-83AC-423C-B43A-EAD8EBFCE113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{91E26956-7865-4C69-B575-91F838A6B613}"/>
+    <workbookView xWindow="1950" yWindow="1035" windowWidth="10680" windowHeight="10485" activeTab="1" xr2:uid="{91E26956-7865-4C69-B575-91F838A6B613}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -393,38 +393,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※「選択ファイル」は添付してもしなくてもよいのでテスト項目に含めない。</t>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テンプ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※「解決チェックボックス」はデフォルトで選択されているので、テスト項目に含めない。</t>
-    <rPh sb="2" eb="4">
-      <t>カイケツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>選択するタグの種類</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
@@ -436,19 +404,6 @@
   </si>
   <si>
     <t>「パーソナルコース」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パーソナルコース」
-「IT基礎コース」
-「Java基礎コース」
-「Webアプリ開発」
-「人生相談」
-「エラー対応」
-「機器トラブル」
-「ネットワークトラブル」
-「IT知識」
-「運営事務局宛て」</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -497,6 +452,47 @@
   </si>
   <si>
     <t>window alertが消える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「選択ファイル」は添付してもしなくてもよいのでテスト項目に含めなかったけど、どうしよう。加えたほうが良いかな</t>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「解決チェックボックス」はデフォルトで選択されているので、テスト項目に含めなかったけど含めたほうがいいかな。</t>
+    <rPh sb="2" eb="4">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>フク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -633,15 +629,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -652,6 +639,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF07A6B-C77C-4498-B385-40A47BB02069}">
   <dimension ref="B3:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1205,7 +1201,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>28</v>
@@ -1251,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1279,8 +1275,8 @@
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1305,15 +1301,15 @@
         <v>4</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -1331,11 +1327,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="6" t="s">
         <v>41</v>
       </c>
@@ -1349,15 +1345,15 @@
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="6" t="s">
         <v>40</v>
       </c>
@@ -1371,16 +1367,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K11" s="6"/>
     </row>
@@ -1389,15 +1385,15 @@
         <v>8</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="8"/>
       <c r="I12" s="6" t="s">
         <v>40</v>
       </c>
@@ -1411,16 +1407,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K13" s="6"/>
     </row>
@@ -1429,15 +1425,15 @@
         <v>10</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="6" t="s">
         <v>40</v>
       </c>
@@ -1451,16 +1447,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K15" s="6"/>
     </row>
@@ -1469,15 +1465,15 @@
         <v>12</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="8"/>
       <c r="I16" s="6" t="s">
         <v>40</v>
       </c>
@@ -1491,41 +1487,34 @@
         <v>13</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K17" s="6"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="C22" s="13" t="s">
-        <v>51</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
     <mergeCell ref="D6:D17"/>
     <mergeCell ref="E7:E17"/>
     <mergeCell ref="F8:F9"/>
@@ -1533,6 +1522,11 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/品質管理/質問編集.xlsx
+++ b/品質管理/質問編集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AF681B-83AC-423C-B43A-EAD8EBFCE113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936D7BDF-4893-44F9-8AF3-08839BAAA8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1035" windowWidth="10680" windowHeight="10485" activeTab="1" xr2:uid="{91E26956-7865-4C69-B575-91F838A6B613}"/>
+    <workbookView xWindow="13152" yWindow="1488" windowWidth="10584" windowHeight="11568" activeTab="1" xr2:uid="{91E26956-7865-4C69-B575-91F838A6B613}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -259,19 +259,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>alert「項目を1つ以上選択してください」</t>
-    <rPh sb="6" eb="8">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -492,6 +479,99 @@
     </rPh>
     <rPh sb="44" eb="45">
       <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>required属性「このフィールドを入力してください」</t>
+    <rPh sb="8" eb="10">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「14.ロゴマーク」をクリックすると、トップページに遷移する。</t>
+    <rPh sb="26" eb="28">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン状態でなければログインページに遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解決チェックボックスがチェックされていなくても更新できる</t>
+    <rPh sb="0" eb="2">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルが添付できる（DB確認）</t>
+    <rPh sb="5" eb="7">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「キャンセル」ボタンを押したら、確認ダイアログボックスが表示される</t>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「キャンセル」→確認ダイアログボックス→OK押されたらマイページに遷移する</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「キャンセル」→確認ダイアログボックス→「キャンセル」押されたら元のページに戻る</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -606,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +728,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,24 +1048,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBA032-DFC0-407F-9F35-C289E43E8EC7}">
   <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,160 +1078,194 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="3">
         <v>18</v>
       </c>
@@ -1164,27 +1283,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF07A6B-C77C-4498-B385-40A47BB02069}">
-  <dimension ref="B3:K22"/>
+  <dimension ref="B3:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9:N11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" customWidth="1"/>
+    <col min="7" max="7" width="17.69921875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="26.75" customWidth="1"/>
-    <col min="11" max="11" width="23.875" customWidth="1"/>
+    <col min="10" max="10" width="26.69921875" customWidth="1"/>
+    <col min="11" max="11" width="23.8984375" customWidth="1"/>
+    <col min="15" max="15" width="39.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="36" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" ht="36" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,20 +1323,29 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="M4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="36" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -1238,11 +1369,21 @@
         <v>29</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="M5" s="14">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="36" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -1266,11 +1407,19 @@
         <v>29</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="M6" s="14">
+        <f t="shared" ref="M6:M11" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="36" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <v>3</v>
       </c>
@@ -1280,7 +1429,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>29</v>
@@ -1292,11 +1441,21 @@
         <v>29</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="M7" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="36" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <v>4</v>
       </c>
@@ -1304,25 +1463,35 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="36" x14ac:dyDescent="0.45">
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -1333,14 +1502,24 @@
       <c r="G9" s="12"/>
       <c r="H9" s="8"/>
       <c r="I9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="2:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M9" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>6</v>
       </c>
@@ -1348,21 +1527,31 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M10" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="36" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>7</v>
       </c>
@@ -1373,14 +1562,24 @@
       <c r="G11" s="12"/>
       <c r="H11" s="8"/>
       <c r="I11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="2:11" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M11" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="93.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>8</v>
       </c>
@@ -1388,21 +1587,21 @@
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <v>9</v>
       </c>
@@ -1413,14 +1612,14 @@
       <c r="G13" s="12"/>
       <c r="H13" s="8"/>
       <c r="I13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="2:11" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:15" ht="131.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <v>10</v>
       </c>
@@ -1428,21 +1627,21 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>11</v>
       </c>
@@ -1453,14 +1652,14 @@
       <c r="G15" s="12"/>
       <c r="H15" s="8"/>
       <c r="I15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="2:11" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:15" ht="150" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <v>12</v>
       </c>
@@ -1468,21 +1667,21 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <v>13</v>
       </c>
@@ -1493,24 +1692,24 @@
       <c r="G17" s="12"/>
       <c r="H17" s="9"/>
       <c r="I17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C22" s="10"/>
     </row>
   </sheetData>

--- a/品質管理/質問編集.xlsx
+++ b/品質管理/質問編集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936D7BDF-4893-44F9-8AF3-08839BAAA8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04CA769-06C4-41BE-8188-59F14DCDD175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13152" yWindow="1488" windowWidth="10584" windowHeight="11568" activeTab="1" xr2:uid="{91E26956-7865-4C69-B575-91F838A6B613}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{91E26956-7865-4C69-B575-91F838A6B613}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="1" r:id="rId1"/>
@@ -686,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,29 +708,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,26 +1039,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBA032-DFC0-407F-9F35-C289E43E8EC7}">
   <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,198 +1067,198 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="3">
         <v>18</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1285,28 +1274,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF07A6B-C77C-4498-B385-40A47BB02069}">
   <dimension ref="B3:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N11"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="23.09765625" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" customWidth="1"/>
-    <col min="7" max="7" width="17.69921875" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="26.69921875" customWidth="1"/>
-    <col min="11" max="11" width="23.8984375" customWidth="1"/>
-    <col min="15" max="15" width="39.09765625" customWidth="1"/>
+    <col min="10" max="10" width="26.75" customWidth="1"/>
+    <col min="11" max="11" width="23.875" customWidth="1"/>
+    <col min="15" max="15" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="36" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15" ht="36" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="36" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -1372,23 +1359,23 @@
         <v>56</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="M5" s="14">
+      <c r="M5" s="6">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="14" t="s">
+      <c r="N5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="36" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1410,22 +1397,22 @@
         <v>56</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="M6" s="14">
+      <c r="M6" s="6">
         <f t="shared" ref="M6:M11" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14" t="s">
+      <c r="N6" s="6"/>
+      <c r="O6" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="36" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1444,31 +1431,31 @@
         <v>42</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="M7" s="14">
+      <c r="M7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="14" t="s">
+      <c r="N7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="36" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -1480,27 +1467,27 @@
       <c r="K8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="14" t="s">
+      <c r="N8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="36" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="6" t="s">
         <v>40</v>
       </c>
@@ -1508,31 +1495,31 @@
         <v>43</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="M9" s="14">
+      <c r="M9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="14" t="s">
+      <c r="N9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="11" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="6" t="s">
         <v>39</v>
       </c>
@@ -1540,27 +1527,27 @@
         <v>45</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="M10" s="14">
+      <c r="M10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="N10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="36" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>7</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="8"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="6" t="s">
         <v>40</v>
       </c>
@@ -1568,31 +1555,31 @@
         <v>52</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="M11" s="14">
+      <c r="M11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="14" t="s">
+      <c r="N11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="93.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <v>8</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="11" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="6" t="s">
         <v>39</v>
       </c>
@@ -1601,16 +1588,16 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>9</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="6" t="s">
         <v>40</v>
       </c>
@@ -1619,20 +1606,20 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="2:15" ht="131.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:15" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
         <v>10</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="11" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="6" t="s">
         <v>39</v>
       </c>
@@ -1641,16 +1628,16 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
         <v>11</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="6" t="s">
         <v>40</v>
       </c>
@@ -1659,20 +1646,20 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="2:15" ht="150" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
         <v>12</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="11" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="6" t="s">
         <v>39</v>
       </c>
@@ -1681,16 +1668,16 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
         <v>13</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="9"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="6" t="s">
         <v>40</v>
       </c>
@@ -1699,21 +1686,27 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C22" s="10"/>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C22" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="H8:H17"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="D6:D17"/>
     <mergeCell ref="E7:E17"/>
     <mergeCell ref="F8:F9"/>
@@ -1721,11 +1714,6 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/品質管理/質問編集.xlsx
+++ b/品質管理/質問編集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04CA769-06C4-41BE-8188-59F14DCDD175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CAF502-815E-4087-9D42-406FAD1CCE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{91E26956-7865-4C69-B575-91F838A6B613}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{91E26956-7865-4C69-B575-91F838A6B613}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="65">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -572,6 +572,13 @@
     </rPh>
     <rPh sb="38" eb="39">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック(2回目)</t>
+    <rPh sb="6" eb="8">
+      <t>カイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1037,229 +1044,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBA032-DFC0-407F-9F35-C289E43E8EC7}">
-  <dimension ref="B1:D21"/>
+  <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="3">
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="3">
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="3">
         <v>18</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1272,76 +1340,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF07A6B-C77C-4498-B385-40A47BB02069}">
-  <dimension ref="B3:O22"/>
+  <dimension ref="B3:Q22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="26.75" customWidth="1"/>
-    <col min="11" max="11" width="23.875" customWidth="1"/>
-    <col min="15" max="15" width="39.125" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="26.75" customWidth="1"/>
+    <col min="12" max="12" width="23.875" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="36" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" ht="36" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>29</v>
@@ -1356,33 +1434,39 @@
         <v>29</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="M5" s="6">
+      <c r="L5" s="6"/>
+      <c r="N5" s="6">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>29</v>
@@ -1394,32 +1478,36 @@
         <v>29</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="M6" s="6">
-        <f t="shared" ref="M6:M11" si="0">ROW()-4</f>
+      <c r="L6" s="6"/>
+      <c r="N6" s="6">
+        <f t="shared" ref="N6:N11" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>29</v>
@@ -1428,292 +1516,339 @@
         <v>29</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="M7" s="6">
+      <c r="L7" s="6"/>
+      <c r="N7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="M9" s="6">
+      <c r="L9" s="6"/>
+      <c r="N9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="M10" s="6">
+      <c r="L10" s="6"/>
+      <c r="N10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>7</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="M11" s="6">
+      <c r="L11" s="6"/>
+      <c r="N11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <v>8</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>9</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="2:15" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="2:17" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
         <v>10</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
         <v>11</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="2:15" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="2:17" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
         <v>12</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="10"/>
+      <c r="J16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
         <v>13</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L17" s="6"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H8:H17"/>
+    <mergeCell ref="E6:E17"/>
+    <mergeCell ref="F7:F17"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="D6:D17"/>
-    <mergeCell ref="E7:E17"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I8:I17"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/品質管理/質問編集.xlsx
+++ b/品質管理/質問編集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CAF502-815E-4087-9D42-406FAD1CCE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798327FB-95AD-4A7D-B836-C0C75AE28C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{91E26956-7865-4C69-B575-91F838A6B613}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="65">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -1342,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF07A6B-C77C-4498-B385-40A47BB02069}">
   <dimension ref="B3:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1489,7 +1489,9 @@
         <v>2</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="P6" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="Q6" s="8" t="s">
         <v>58</v>
       </c>
@@ -1836,6 +1838,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I8:I17"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="E6:E17"/>
     <mergeCell ref="F7:F17"/>
     <mergeCell ref="G8:G9"/>
@@ -1843,12 +1851,6 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I8:I17"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
